--- a/documents/ģ�����.xlsx
+++ b/documents/ģ�����.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20280" windowHeight="7815"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>用户</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -207,14 +207,18 @@
   </si>
   <si>
     <t>右下角小提示。用户等级划分。积分管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天室</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,11 +353,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -427,6 +436,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -461,6 +471,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -636,14 +647,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="31.125" customWidth="1"/>
@@ -651,7 +662,7 @@
     <col min="4" max="4" width="41.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +672,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -669,7 +680,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -679,7 +690,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -689,7 +700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -697,7 +708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -705,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -716,7 +727,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -724,7 +735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -732,7 +743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -740,7 +751,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
@@ -750,7 +761,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
@@ -758,7 +769,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -766,7 +777,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -774,7 +785,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
@@ -784,7 +795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -792,7 +803,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -800,203 +811,211 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="6" t="s">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
     </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A36:D42"/>
+    <mergeCell ref="A37:D43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1004,12 +1023,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1017,12 +1036,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
